--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H2">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I2">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J2">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N2">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O2">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P2">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q2">
-        <v>19.555608245574</v>
+        <v>28.61838661885324</v>
       </c>
       <c r="R2">
-        <v>78.22243298229598</v>
+        <v>114.473546475413</v>
       </c>
       <c r="S2">
-        <v>0.01933038915752504</v>
+        <v>0.03554490367491237</v>
       </c>
       <c r="T2">
-        <v>0.01224195843711336</v>
+        <v>0.02495302619316998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H3">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I3">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J3">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P3">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q3">
-        <v>108.863770567411</v>
+        <v>102.0719394133418</v>
       </c>
       <c r="R3">
-        <v>653.182623404466</v>
+        <v>612.431636480051</v>
       </c>
       <c r="S3">
-        <v>0.1076100023991766</v>
+        <v>0.1267764428050804</v>
       </c>
       <c r="T3">
-        <v>0.1022243137000344</v>
+        <v>0.1334982896672551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H4">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I4">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J4">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N4">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O4">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P4">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q4">
-        <v>0.645696756034</v>
+        <v>6.719239115113166</v>
       </c>
       <c r="R4">
-        <v>3.874180536204</v>
+        <v>40.315434690679</v>
       </c>
       <c r="S4">
-        <v>0.0006382603606673124</v>
+        <v>0.008345498657777627</v>
       </c>
       <c r="T4">
-        <v>0.0006063165679443535</v>
+        <v>0.008787987520257506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H5">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I5">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J5">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N5">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O5">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P5">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q5">
-        <v>117.7980736419</v>
+        <v>106.181908474801</v>
       </c>
       <c r="R5">
-        <v>471.1922945676</v>
+        <v>424.727633899204</v>
       </c>
       <c r="S5">
-        <v>0.1164414104081928</v>
+        <v>0.1318811489627712</v>
       </c>
       <c r="T5">
-        <v>0.07374248365926141</v>
+        <v>0.09258243585496215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H6">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I6">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J6">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N6">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O6">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P6">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q6">
-        <v>21.194670199093</v>
+        <v>59.08829603588133</v>
       </c>
       <c r="R6">
-        <v>127.168021194558</v>
+        <v>354.529776215288</v>
       </c>
       <c r="S6">
-        <v>0.02095057427357667</v>
+        <v>0.07338945478940728</v>
       </c>
       <c r="T6">
-        <v>0.01990203539624081</v>
+        <v>0.0772806562261865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H7">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I7">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J7">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N7">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O7">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P7">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q7">
-        <v>4.824010844284</v>
+        <v>4.557366675633665</v>
       </c>
       <c r="R7">
-        <v>28.944065065704</v>
+        <v>27.344200053802</v>
       </c>
       <c r="S7">
-        <v>0.00476845341495506</v>
+        <v>0.005660387556227143</v>
       </c>
       <c r="T7">
-        <v>0.004529800826006636</v>
+        <v>0.005960508442187143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J8">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N8">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O8">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P8">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q8">
-        <v>9.069942682524001</v>
+        <v>14.156482817427</v>
       </c>
       <c r="R8">
-        <v>54.419656095144</v>
+        <v>84.938896904562</v>
       </c>
       <c r="S8">
-        <v>0.00896548547546798</v>
+        <v>0.01758278077735879</v>
       </c>
       <c r="T8">
-        <v>0.008516778917238956</v>
+        <v>0.01851504198599918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.263118</v>
       </c>
       <c r="I9">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J9">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>72.555193</v>
       </c>
       <c r="O9">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P9">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q9">
         <v>50.49130391908601</v>
@@ -1013,10 +1013,10 @@
         <v>454.421735271774</v>
       </c>
       <c r="S9">
-        <v>0.04990980293582548</v>
+        <v>0.06271172998418849</v>
       </c>
       <c r="T9">
-        <v>0.07111785946848596</v>
+        <v>0.09905517748083227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>6.263118</v>
       </c>
       <c r="I10">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J10">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N10">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O10">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P10">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q10">
-        <v>0.299475858484</v>
+        <v>3.323765044694</v>
       </c>
       <c r="R10">
-        <v>2.695282726356</v>
+        <v>29.913885402246</v>
       </c>
       <c r="S10">
-        <v>0.0002960268386993196</v>
+        <v>0.00412821693707425</v>
       </c>
       <c r="T10">
-        <v>0.0004218168350732274</v>
+        <v>0.006520650307117488</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.263118</v>
       </c>
       <c r="I11">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J11">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N11">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O11">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P11">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q11">
-        <v>54.63505724940001</v>
+        <v>52.52435725551602</v>
       </c>
       <c r="R11">
-        <v>327.8103434964</v>
+        <v>315.1461435330961</v>
       </c>
       <c r="S11">
-        <v>0.05400583326338581</v>
+        <v>0.06523684385492491</v>
       </c>
       <c r="T11">
-        <v>0.0513029376272028</v>
+        <v>0.0686957835795441</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.263118</v>
       </c>
       <c r="I12">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J12">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N12">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O12">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P12">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q12">
-        <v>9.830143939618001</v>
+        <v>29.22884712836801</v>
       </c>
       <c r="R12">
-        <v>88.471295456562</v>
+        <v>263.059624155312</v>
       </c>
       <c r="S12">
-        <v>0.009716931605556657</v>
+        <v>0.03630311413230222</v>
       </c>
       <c r="T12">
-        <v>0.01384592476306556</v>
+        <v>0.05734192653254453</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.263118</v>
       </c>
       <c r="I13">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J13">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N13">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O13">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P13">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q13">
-        <v>2.237388952984</v>
+        <v>2.254364786372</v>
       </c>
       <c r="R13">
-        <v>20.136500576856</v>
+        <v>20.289283077348</v>
       </c>
       <c r="S13">
-        <v>0.002211621270727637</v>
+        <v>0.002799989400063463</v>
       </c>
       <c r="T13">
-        <v>0.003151400355785057</v>
+        <v>0.004422672553247449</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H14">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I14">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J14">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N14">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O14">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P14">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q14">
-        <v>0.06231540002466666</v>
+        <v>0.6847671163074999</v>
       </c>
       <c r="R14">
-        <v>0.373892400148</v>
+        <v>4.108602697844999</v>
       </c>
       <c r="S14">
-        <v>6.159772265106015E-05</v>
+        <v>0.0008505015154440218</v>
       </c>
       <c r="T14">
-        <v>5.851486649105278E-05</v>
+        <v>0.000895596178272289</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H15">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I15">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J15">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>72.555193</v>
       </c>
       <c r="O15">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P15">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q15">
-        <v>0.3469025011092222</v>
+        <v>2.442328721701666</v>
       </c>
       <c r="R15">
-        <v>3.122122509983</v>
+        <v>21.980958495315</v>
       </c>
       <c r="S15">
-        <v>0.0003429072755984329</v>
+        <v>0.003033446305396102</v>
       </c>
       <c r="T15">
-        <v>0.0004886180670376032</v>
+        <v>0.004791425180510017</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H16">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I16">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J16">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N16">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O16">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P16">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q16">
-        <v>0.002057560733555556</v>
+        <v>0.1607747513483333</v>
       </c>
       <c r="R16">
-        <v>0.018518046602</v>
+        <v>1.446972762135</v>
       </c>
       <c r="S16">
-        <v>2.033864106675049E-06</v>
+        <v>0.0001996871146562031</v>
       </c>
       <c r="T16">
-        <v>2.898109253256293E-06</v>
+        <v>0.0003154121659200383</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H17">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I17">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J17">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N17">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O17">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P17">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q17">
-        <v>0.3753723222999999</v>
+        <v>2.54067010271</v>
       </c>
       <c r="R17">
-        <v>2.2522339338</v>
+        <v>15.24402061626</v>
       </c>
       <c r="S17">
-        <v>0.0003710492140107778</v>
+        <v>0.003155589281579681</v>
       </c>
       <c r="T17">
-        <v>0.00035247886261063</v>
+        <v>0.003322902604476042</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H18">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I18">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J18">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N18">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O18">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P18">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q18">
-        <v>0.06753839283655555</v>
+        <v>1.413836587746667</v>
       </c>
       <c r="R18">
-        <v>0.6078455355289999</v>
+        <v>12.72452928972</v>
       </c>
       <c r="S18">
-        <v>6.67605630164893E-05</v>
+        <v>0.001756027898875866</v>
       </c>
       <c r="T18">
-        <v>9.51289738560688E-05</v>
+        <v>0.00277370206862892</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H19">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I19">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J19">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N19">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O19">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P19">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q19">
-        <v>0.01537206931688889</v>
+        <v>0.1090464979033333</v>
       </c>
       <c r="R19">
-        <v>0.138348623852</v>
+        <v>0.9814184811299999</v>
       </c>
       <c r="S19">
-        <v>1.519503143652745E-05</v>
+        <v>0.0001354390558658206</v>
       </c>
       <c r="T19">
-        <v>2.165182081988345E-05</v>
+        <v>0.0002139303080940006</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H20">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I20">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J20">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N20">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O20">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P20">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q20">
-        <v>14.530971321745</v>
+        <v>29.52974360453275</v>
       </c>
       <c r="R20">
-        <v>58.12388528697999</v>
+        <v>118.118974418131</v>
       </c>
       <c r="S20">
-        <v>0.01436362024432251</v>
+        <v>0.0366768366766175</v>
       </c>
       <c r="T20">
-        <v>0.009096497778940196</v>
+        <v>0.0257476592043827</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H21">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I21">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J21">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>72.555193</v>
       </c>
       <c r="O21">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P21">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q21">
-        <v>80.89220791432582</v>
+        <v>105.3224362448062</v>
       </c>
       <c r="R21">
-        <v>485.353247485955</v>
+        <v>631.934617468837</v>
       </c>
       <c r="S21">
-        <v>0.07996058415361493</v>
+        <v>0.1308136584003821</v>
       </c>
       <c r="T21">
-        <v>0.07595869952531173</v>
+        <v>0.1377495635243344</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H22">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I22">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J22">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N22">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O22">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P22">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q22">
-        <v>0.4797908061283334</v>
+        <v>6.933214332778833</v>
       </c>
       <c r="R22">
-        <v>2.87874483677</v>
+        <v>41.599285996673</v>
       </c>
       <c r="S22">
-        <v>0.0004742651253899216</v>
+        <v>0.008611262364238075</v>
       </c>
       <c r="T22">
-        <v>0.0004505290017093842</v>
+        <v>0.009067842353561588</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H23">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I23">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J23">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N23">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O23">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P23">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q23">
-        <v>87.53092250324998</v>
+        <v>109.563287912087</v>
       </c>
       <c r="R23">
-        <v>350.1236900129999</v>
+        <v>438.253151648348</v>
       </c>
       <c r="S23">
-        <v>0.08652284163485117</v>
+        <v>0.1360809247218799</v>
       </c>
       <c r="T23">
-        <v>0.05479501848220444</v>
+        <v>0.09553073796546822</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H24">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I24">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J24">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N24">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O24">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P24">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q24">
-        <v>15.74889110936083</v>
+        <v>60.96997203954267</v>
       </c>
       <c r="R24">
-        <v>94.49334665616499</v>
+        <v>365.819832237256</v>
       </c>
       <c r="S24">
-        <v>0.01556751342737361</v>
+        <v>0.07572655342422251</v>
       </c>
       <c r="T24">
-        <v>0.01478838714477636</v>
+        <v>0.07974167077769281</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H25">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I25">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J25">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N25">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O25">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P25">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q25">
-        <v>3.584524825503333</v>
+        <v>4.702496728262333</v>
       </c>
       <c r="R25">
-        <v>21.50714895302</v>
+        <v>28.214980369574</v>
       </c>
       <c r="S25">
-        <v>0.0035432423758781</v>
+        <v>0.005840643480843889</v>
       </c>
       <c r="T25">
-        <v>0.003365909414288699</v>
+        <v>0.006150321763229158</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H26">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I26">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J26">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N26">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O26">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P26">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q26">
-        <v>27.54820598442133</v>
+        <v>0.4087694986053333</v>
       </c>
       <c r="R26">
-        <v>165.289235906528</v>
+        <v>2.452616991632</v>
       </c>
       <c r="S26">
-        <v>0.02723093731390578</v>
+        <v>0.0005077041080854269</v>
       </c>
       <c r="T26">
-        <v>0.02586807746734123</v>
+        <v>0.0005346232201092141</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H27">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I27">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J27">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>72.555193</v>
       </c>
       <c r="O27">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P27">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q27">
-        <v>153.3576219246764</v>
+        <v>1.457940171518222</v>
       </c>
       <c r="R27">
-        <v>1380.218597322088</v>
+        <v>13.121461543664</v>
       </c>
       <c r="S27">
-        <v>0.151591424559629</v>
+        <v>0.001810805886809177</v>
       </c>
       <c r="T27">
-        <v>0.2160068161824126</v>
+        <v>0.002860225647521499</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H28">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I28">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J28">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N28">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O28">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P28">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q28">
-        <v>0.9096003057191111</v>
+        <v>0.09597396389511112</v>
       </c>
       <c r="R28">
-        <v>8.186402751471999</v>
+        <v>0.863765675056</v>
       </c>
       <c r="S28">
-        <v>0.0008991245716600861</v>
+        <v>0.0001192025723666717</v>
       </c>
       <c r="T28">
-        <v>0.001281187485636925</v>
+        <v>0.0001882842646013668</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H29">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I29">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J29">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N29">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O29">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P29">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q29">
-        <v>165.9434754728</v>
+        <v>1.516644738442667</v>
       </c>
       <c r="R29">
-        <v>995.6608528367999</v>
+        <v>9.099868430656</v>
       </c>
       <c r="S29">
-        <v>0.1640323286680404</v>
+        <v>0.001883718738410399</v>
       </c>
       <c r="T29">
-        <v>0.1558228031675726</v>
+        <v>0.001983595881283634</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H30">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I30">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J30">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N30">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O30">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P30">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q30">
-        <v>29.8571710521271</v>
+        <v>0.843985143736889</v>
       </c>
       <c r="R30">
-        <v>268.714539469144</v>
+        <v>7.595866293632</v>
       </c>
       <c r="S30">
-        <v>0.02951331036768106</v>
+        <v>0.001048255131804732</v>
       </c>
       <c r="T30">
-        <v>0.0420543327305333</v>
+        <v>0.00165575241110859</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H31">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I31">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J31">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N31">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O31">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P31">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q31">
-        <v>6.795638506385776</v>
+        <v>0.06509495156977778</v>
       </c>
       <c r="R31">
-        <v>61.16074655747199</v>
+        <v>0.585854564128</v>
       </c>
       <c r="S31">
-        <v>0.006717374128827233</v>
+        <v>8.084990303913758E-05</v>
       </c>
       <c r="T31">
-        <v>0.009571772301033577</v>
+        <v>0.0001277050002745748</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H32">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I32">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J32">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N32">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O32">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P32">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q32">
-        <v>1.731192511433333</v>
+        <v>1.598047611471833</v>
       </c>
       <c r="R32">
-        <v>10.3871550686</v>
+        <v>9.588285668830999</v>
       </c>
       <c r="S32">
-        <v>0.001711254619767374</v>
+        <v>0.001984823574235654</v>
       </c>
       <c r="T32">
-        <v>0.001625609378046735</v>
+        <v>0.002090061422997187</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H33">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I33">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J33">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>72.555193</v>
       </c>
       <c r="O33">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P33">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q33">
-        <v>9.637345052427778</v>
+        <v>5.699686049748555</v>
       </c>
       <c r="R33">
-        <v>86.73610547185001</v>
+        <v>51.297174447737</v>
       </c>
       <c r="S33">
-        <v>0.009526353155031178</v>
+        <v>0.007079182845412</v>
       </c>
       <c r="T33">
-        <v>0.01357436425460953</v>
+        <v>0.01118179507005069</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H34">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I34">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J34">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N34">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O34">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P34">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q34">
-        <v>0.05716137154444445</v>
+        <v>0.3752015849747777</v>
       </c>
       <c r="R34">
-        <v>0.5144523439000001</v>
+        <v>3.376814264773</v>
       </c>
       <c r="S34">
-        <v>5.650305236514811E-05</v>
+        <v>0.0004660117418295374</v>
       </c>
       <c r="T34">
-        <v>8.051276305001595E-05</v>
+        <v>0.0007360804080307648</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H35">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I35">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J35">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N35">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O35">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P35">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q35">
-        <v>10.428268985</v>
+        <v>5.929186277324667</v>
       </c>
       <c r="R35">
-        <v>62.56961391</v>
+        <v>35.57511766394801</v>
       </c>
       <c r="S35">
-        <v>0.01030816813202538</v>
+        <v>0.007364229084782787</v>
       </c>
       <c r="T35">
-        <v>0.009792262701491429</v>
+        <v>0.007754689797124992</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H36">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I36">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J36">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N36">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O36">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P36">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q36">
-        <v>1.876293177394444</v>
+        <v>3.299484055606222</v>
       </c>
       <c r="R36">
-        <v>16.88663859655</v>
+        <v>29.695356500456</v>
       </c>
       <c r="S36">
-        <v>0.001854684182521023</v>
+        <v>0.004098059212610214</v>
       </c>
       <c r="T36">
-        <v>0.002642790820483778</v>
+        <v>0.006473015219551631</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H37">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I37">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J37">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N37">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O37">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P37">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q37">
-        <v>0.4270535257111111</v>
+        <v>0.2544828619304444</v>
       </c>
       <c r="R37">
-        <v>3.8434817314</v>
+        <v>2.290345757374</v>
       </c>
       <c r="S37">
-        <v>0.0004221352125397213</v>
+        <v>0.0003160754285244936</v>
       </c>
       <c r="T37">
-        <v>0.0006015121470365473</v>
+        <v>0.000499251219472302</v>
       </c>
     </row>
   </sheetData>
